--- a/data/trans_orig/Q5414-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5414-Edad-trans_orig.xlsx
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6815</v>
+        <v>6146</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.006235474834346775</v>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02329207596397999</v>
+        <v>0.02100614362365932</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>4493</v>
+        <v>5149</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002614239136461955</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01310154798785097</v>
+        <v>0.01501447126114351</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -786,19 +786,19 @@
         <v>2721</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7371</v>
+        <v>7340</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.004281404619465573</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.00132619281592207</v>
+        <v>0.001324524278566993</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01159853154086695</v>
+        <v>0.01154902416651131</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>2679</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7467</v>
+        <v>7375</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009157662896643857</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.002766876880509612</v>
+        <v>0.002771444075199182</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02552156934828038</v>
+        <v>0.02520751518024822</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -836,19 +836,19 @@
         <v>3003</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>906</v>
+        <v>912</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8122</v>
+        <v>9122</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.008755780817174088</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002642839377457312</v>
+        <v>0.002658586748281041</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02368370790340153</v>
+        <v>0.02660098223699651</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -857,19 +857,19 @@
         <v>5682</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2537</v>
+        <v>2054</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12055</v>
+        <v>12154</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.008940801618642788</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003992388537558215</v>
+        <v>0.003231980383323071</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01896942988776009</v>
+        <v>0.01912445842585076</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>288079</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>281940</v>
+        <v>282432</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>290879</v>
+        <v>290869</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9846068622690094</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9636250667366839</v>
+        <v>0.9653058430875843</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9941777104498749</v>
+        <v>0.9941414160496929</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>367</v>
@@ -907,19 +907,19 @@
         <v>339035</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>332950</v>
+        <v>332507</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>342015</v>
+        <v>341898</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9886299800463639</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9708863986464207</v>
+        <v>0.9695939971154219</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9973205337031056</v>
+        <v>0.9969777772558177</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>665</v>
@@ -928,19 +928,19 @@
         <v>627114</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>619592</v>
+        <v>619697</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>631065</v>
+        <v>631076</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9867777937618917</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9749419596144365</v>
+        <v>0.9751069476939578</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9929953703910855</v>
+        <v>0.9930112120042945</v>
       </c>
     </row>
     <row r="7">
@@ -1045,19 +1045,19 @@
         <v>3467</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1131</v>
+        <v>1122</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10384</v>
+        <v>10500</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0103818901051552</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.003387306113100509</v>
+        <v>0.003360765978017769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03109800862348113</v>
+        <v>0.03144533995282906</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>4</v>
@@ -1066,19 +1066,19 @@
         <v>3467</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>9391</v>
+        <v>10254</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.006374868446129871</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.002067337124693604</v>
+        <v>0.002067933405558975</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01726895772482333</v>
+        <v>0.01885639249144042</v>
       </c>
     </row>
     <row r="9">
@@ -1095,19 +1095,19 @@
         <v>5414</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2544</v>
+        <v>2535</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11746</v>
+        <v>11682</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02579597074865145</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01211972242035443</v>
+        <v>0.01208007056104392</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.05596456040923699</v>
+        <v>0.05565968387630885</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>5</v>
@@ -1116,19 +1116,19 @@
         <v>5694</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>2240</v>
+        <v>2246</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12555</v>
+        <v>12708</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01705134537231158</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.006707913128515046</v>
+        <v>0.006725686520849206</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.03760035618406695</v>
+        <v>0.03805722086064989</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1137,19 +1137,19 @@
         <v>11108</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5629</v>
+        <v>5946</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19338</v>
+        <v>19120</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02042644402276417</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01035117775225777</v>
+        <v>0.01093482020081076</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.03556122127732572</v>
+        <v>0.03515989979847199</v>
       </c>
     </row>
     <row r="10">
@@ -1166,19 +1166,19 @@
         <v>204469</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>198137</v>
+        <v>198201</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>207339</v>
+        <v>207348</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9742040292513485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9440354395907639</v>
+        <v>0.9443403161236914</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9878802775796456</v>
+        <v>0.9879199294389561</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>281</v>
@@ -1187,19 +1187,19 @@
         <v>324748</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>316646</v>
+        <v>316383</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>330350</v>
+        <v>329395</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9725667645225332</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9483034603547771</v>
+        <v>0.9475157998668469</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9893450735088598</v>
+        <v>0.9864849180136219</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>495</v>
@@ -1208,19 +1208,19 @@
         <v>529217</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>519948</v>
+        <v>519429</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>535801</v>
+        <v>535348</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9731986875311059</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9561545016686481</v>
+        <v>0.9551999843085999</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.985306342916566</v>
+        <v>0.9844730530795173</v>
       </c>
     </row>
     <row r="11">
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6229</v>
+        <v>6459</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003630880060061497</v>
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01239688647375595</v>
+        <v>0.01285508020912717</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>5</v>
@@ -1333,19 +1333,19 @@
         <v>4363</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1154</v>
+        <v>1148</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>10648</v>
+        <v>10309</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.006446272307966698</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.001704408055958046</v>
+        <v>0.001695432792472907</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01573178700912805</v>
+        <v>0.01523173440684728</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>7</v>
@@ -1354,19 +1354,19 @@
         <v>6188</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2315</v>
+        <v>2272</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>13507</v>
+        <v>12712</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.005246722323954361</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.001962988289154578</v>
+        <v>0.001926693993247964</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01145369360312125</v>
+        <v>0.01077913372620147</v>
       </c>
     </row>
     <row r="13">
@@ -1383,19 +1383,19 @@
         <v>8094</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>3633</v>
+        <v>3594</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15006</v>
+        <v>13797</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01610758264382676</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007230598002809448</v>
+        <v>0.007151925965693604</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02986454548353293</v>
+        <v>0.02745868962420548</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>8</v>
@@ -1404,19 +1404,19 @@
         <v>8696</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>4211</v>
+        <v>4231</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>16955</v>
+        <v>17290</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01284825081611815</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.006221519777470142</v>
+        <v>0.006251013134590166</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02505000575282022</v>
+        <v>0.02554508757334463</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>17</v>
@@ -1425,19 +1425,19 @@
         <v>16790</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10447</v>
+        <v>10303</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>25946</v>
+        <v>25821</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.01423694947603945</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.008858162210160983</v>
+        <v>0.008736083288452233</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02200145422899554</v>
+        <v>0.02189516891272558</v>
       </c>
     </row>
     <row r="14">
@@ -1454,19 +1454,19 @@
         <v>492548</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>484449</v>
+        <v>486132</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497214</v>
+        <v>497134</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9802615372961118</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9641422800938788</v>
+        <v>0.967492123220223</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9895482156228261</v>
+        <v>0.9893873449657176</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>648</v>
@@ -1475,19 +1475,19 @@
         <v>663783</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>654554</v>
+        <v>654809</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>670238</v>
+        <v>669963</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9807054768759151</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9670700562150728</v>
+        <v>0.9674472432768692</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9902425103068391</v>
+        <v>0.9898367963869905</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1160</v>
@@ -1496,19 +1496,19 @@
         <v>1156331</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1145857</v>
+        <v>1145656</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1164318</v>
+        <v>1164511</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9805163282000062</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9716347267760019</v>
+        <v>0.9714644809106923</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9872891021079236</v>
+        <v>0.9874531378608046</v>
       </c>
     </row>
     <row r="15">
@@ -1838,19 +1838,19 @@
         <v>2988</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>979</v>
+        <v>970</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8191</v>
+        <v>7918</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.009643972047638158</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003160229452085116</v>
+        <v>0.003131455979402261</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02643935788017822</v>
+        <v>0.02556006125865095</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5920</v>
+        <v>6472</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.005493227242220973</v>
@@ -1871,7 +1871,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01672281549814768</v>
+        <v>0.01828172989463347</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -1880,19 +1880,19 @@
         <v>4932</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1942</v>
+        <v>1949</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10903</v>
+        <v>10928</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007430373826247151</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002925999738084369</v>
+        <v>0.002935564922227441</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01642530435403006</v>
+        <v>0.01646341421973279</v>
       </c>
     </row>
     <row r="5">
@@ -1909,19 +1909,19 @@
         <v>3159</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>8820</v>
+        <v>8578</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01019584903220862</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.003083278356603081</v>
+        <v>0.003097554419950788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02847016109210673</v>
+        <v>0.02768866095300669</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6874</v>
+        <v>5969</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.005482252686967592</v>
@@ -1942,7 +1942,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01941704352949923</v>
+        <v>0.016860615707658</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -1951,19 +1951,19 @@
         <v>5099</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1120</v>
+        <v>1955</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10624</v>
+        <v>11292</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007682081268754904</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.001687809737904121</v>
+        <v>0.002945387527009136</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01600552838080966</v>
+        <v>0.01701117984296858</v>
       </c>
     </row>
     <row r="6">
@@ -1980,19 +1980,19 @@
         <v>303640</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>297232</v>
+        <v>297157</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>306891</v>
+        <v>307651</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9801601789201532</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9594753812520468</v>
+        <v>0.9592331954056831</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9906540080040755</v>
+        <v>0.993107700778918</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>340</v>
@@ -2001,19 +2001,19 @@
         <v>350111</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>344290</v>
+        <v>345174</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>352999</v>
+        <v>353010</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9890245200708114</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9725807576403794</v>
+        <v>0.9750776432750953</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9971822216393017</v>
+        <v>0.9972159830446552</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>616</v>
@@ -2022,19 +2022,19 @@
         <v>653751</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>646592</v>
+        <v>646063</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>658890</v>
+        <v>658723</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.984887544904998</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9741033709779187</v>
+        <v>0.9733053158788181</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9926304522845426</v>
+        <v>0.992379132056917</v>
       </c>
     </row>
     <row r="7">
@@ -2126,19 +2126,19 @@
         <v>3151</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>988</v>
+        <v>1031</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>8564</v>
+        <v>8378</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01261072776333121</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.003956101730364616</v>
+        <v>0.004126539146773044</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.03427587805566736</v>
+        <v>0.03353209833494872</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>10</v>
@@ -2147,19 +2147,19 @@
         <v>11209</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>5480</v>
+        <v>5441</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>19468</v>
+        <v>19847</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02881572787582447</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01408930522489832</v>
+        <v>0.01398773575430033</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.05005018997359431</v>
+        <v>0.05102377908300325</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>13</v>
@@ -2168,19 +2168,19 @@
         <v>14360</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8627</v>
+        <v>7784</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>24328</v>
+        <v>23259</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02247783821505422</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01350503610503026</v>
+        <v>0.01218505035141716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03808254700783151</v>
+        <v>0.03640834871485089</v>
       </c>
     </row>
     <row r="9">
@@ -2197,19 +2197,19 @@
         <v>10701</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5278</v>
+        <v>5066</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>22021</v>
+        <v>22927</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04282972497285106</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.02112450802399929</v>
+        <v>0.02027628211929802</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08813782511489369</v>
+        <v>0.09176435656659697</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>17</v>
@@ -2218,19 +2218,19 @@
         <v>19680</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>12017</v>
+        <v>12033</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>30253</v>
+        <v>30031</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.05059333371416201</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03089468109280382</v>
+        <v>0.03093501654803937</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07777581295729641</v>
+        <v>0.07720522794971209</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>25</v>
@@ -2239,19 +2239,19 @@
         <v>30381</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>19656</v>
+        <v>20681</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>44663</v>
+        <v>44531</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0475569316635452</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03076808109120018</v>
+        <v>0.03237267332665978</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06991414003998216</v>
+        <v>0.06970742856806722</v>
       </c>
     </row>
     <row r="10">
@@ -2268,19 +2268,19 @@
         <v>235999</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>224527</v>
+        <v>224568</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>242352</v>
+        <v>242384</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9445595472638177</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.8986431582179768</v>
+        <v>0.8988092455219839</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9699869536540813</v>
+        <v>0.9701129034176634</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>323</v>
@@ -2289,19 +2289,19 @@
         <v>358091</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>346419</v>
+        <v>345462</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>368824</v>
+        <v>368223</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9205909384100135</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8905863650068481</v>
+        <v>0.8881255345994252</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9481852899981923</v>
+        <v>0.9466395696614799</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>534</v>
@@ -2310,19 +2310,19 @@
         <v>594090</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>577914</v>
+        <v>579378</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>606193</v>
+        <v>607148</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9299652301214005</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9046443639567078</v>
+        <v>0.9069353351635437</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9489106211131387</v>
+        <v>0.9504065819454628</v>
       </c>
     </row>
     <row r="11">
@@ -2414,19 +2414,19 @@
         <v>6138</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2966</v>
+        <v>2069</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13330</v>
+        <v>12321</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.01096848490119195</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.005299994504862984</v>
+        <v>0.003697893221933146</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02381866449756179</v>
+        <v>0.02201656591090905</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>12</v>
@@ -2435,19 +2435,19 @@
         <v>13153</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>7456</v>
+        <v>7490</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>22854</v>
+        <v>22027</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01770354783711975</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.01003596196317835</v>
+        <v>0.01008055502817329</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.03076056107324554</v>
+        <v>0.02964714844208186</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>18</v>
@@ -2456,19 +2456,19 @@
         <v>19292</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>11738</v>
+        <v>12225</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>30228</v>
+        <v>30060</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.01480998431968354</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.009010865740129834</v>
+        <v>0.009385247891174713</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.02320555394908721</v>
+        <v>0.02307634225894416</v>
       </c>
     </row>
     <row r="13">
@@ -2485,19 +2485,19 @@
         <v>13860</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>7420</v>
+        <v>7535</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>24340</v>
+        <v>25538</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02476529535231574</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01325787687762773</v>
+        <v>0.01346425412092368</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04349241851146981</v>
+        <v>0.04563286234928123</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -2506,19 +2506,19 @@
         <v>21620</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13056</v>
+        <v>12952</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31244</v>
+        <v>31835</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02909982141932155</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01757197605299769</v>
+        <v>0.01743282385298935</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0420529499456824</v>
+        <v>0.04284856359086296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>30</v>
@@ -2527,19 +2527,19 @@
         <v>35480</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>24929</v>
+        <v>23776</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51061</v>
+        <v>49583</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02723759286820312</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01913756748092745</v>
+        <v>0.0182529203957396</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03919882835580531</v>
+        <v>0.03806463113582655</v>
       </c>
     </row>
     <row r="14">
@@ -2556,19 +2556,19 @@
         <v>539639</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>528963</v>
+        <v>527851</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>547348</v>
+        <v>547199</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9642662197464923</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9451901298596301</v>
+        <v>0.9432018923058232</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9780406281469549</v>
+        <v>0.9777753438279506</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>663</v>
@@ -2577,19 +2577,19 @@
         <v>708201</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>695169</v>
+        <v>694184</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>718968</v>
+        <v>718532</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9531966307435586</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9356558531028339</v>
+        <v>0.9343295747843993</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9676884232946382</v>
+        <v>0.9671009628991866</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1150</v>
@@ -2598,19 +2598,19 @@
         <v>1247840</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1230042</v>
+        <v>1231346</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1260676</v>
+        <v>1262104</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9579524228121133</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9442889698605529</v>
+        <v>0.9452901714976294</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9678061097318342</v>
+        <v>0.9689026511447055</v>
       </c>
     </row>
     <row r="15">
@@ -2956,7 +2956,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6109</v>
+        <v>6297</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.002746431425896789</v>
@@ -2965,7 +2965,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01617253754917486</v>
+        <v>0.01666921296399775</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1</v>
@@ -2977,7 +2977,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5260</v>
+        <v>5216</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.001456971055783952</v>
@@ -2986,7 +2986,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.007387202531152527</v>
+        <v>0.007324359575436247</v>
       </c>
     </row>
     <row r="5">
@@ -3006,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6975</v>
+        <v>6886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.005898232824926893</v>
@@ -3015,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.02086241603553361</v>
+        <v>0.02059682345739637</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -3024,19 +3024,19 @@
         <v>3679</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>974</v>
+        <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>10304</v>
+        <v>9795</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009740000504232122</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.002577327065884507</v>
+        <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02727651011219475</v>
+        <v>0.02592865332871329</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>5</v>
@@ -3045,19 +3045,19 @@
         <v>5651</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2029</v>
+        <v>1934</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13784</v>
+        <v>12999</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.007936275449627165</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002849326917953156</v>
+        <v>0.002715806674735169</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01935639380490736</v>
+        <v>0.01825421656697473</v>
       </c>
     </row>
     <row r="6">
@@ -3074,7 +3074,7 @@
         <v>332358</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>327355</v>
+        <v>327444</v>
       </c>
       <c r="F6" s="5" t="n">
         <v>334330</v>
@@ -3083,7 +3083,7 @@
         <v>0.9941017671750731</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9791375839644664</v>
+        <v>0.9794031765426036</v>
       </c>
       <c r="I6" s="6" t="n">
         <v>1</v>
@@ -3095,19 +3095,19 @@
         <v>373045</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>366273</v>
+        <v>366653</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>376084</v>
+        <v>376744</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.9875135680698711</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9695870804450315</v>
+        <v>0.9705922477255744</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9955573160027167</v>
+        <v>0.997306218981743</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>673</v>
@@ -3116,19 +3116,19 @@
         <v>705403</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>696521</v>
+        <v>697531</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>709148</v>
+        <v>710034</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.9906067534945889</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9781329557775198</v>
+        <v>0.979552420742541</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9958651282758716</v>
+        <v>0.997110325146549</v>
       </c>
     </row>
     <row r="7">
@@ -3223,7 +3223,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4573</v>
+        <v>4319</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.003548045625365132</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0177920342902284</v>
+        <v>0.01680614246132911</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>6</v>
@@ -3241,19 +3241,19 @@
         <v>8315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3434</v>
+        <v>3387</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>18118</v>
+        <v>17854</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02077971782659819</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008581438539693575</v>
+        <v>0.008464171383039239</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04527600580850749</v>
+        <v>0.04461672621985357</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>7</v>
@@ -3262,19 +3262,19 @@
         <v>9227</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>3799</v>
+        <v>3459</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17853</v>
+        <v>18079</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01404093558801305</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.005781065875381713</v>
+        <v>0.005263068552036045</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02716718777858028</v>
+        <v>0.02751024412761328</v>
       </c>
     </row>
     <row r="9">
@@ -3291,19 +3291,19 @@
         <v>6609</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3216</v>
+        <v>3258</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>12477</v>
+        <v>12765</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02571677426282164</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01251561259773537</v>
+        <v>0.01267766916907737</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.0485484570247338</v>
+        <v>0.04966938954832033</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>14</v>
@@ -3312,19 +3312,19 @@
         <v>17921</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>10027</v>
+        <v>10188</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>29123</v>
+        <v>28527</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.0447826029699219</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02505652076807402</v>
+        <v>0.02545834014184537</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.07277635632060998</v>
+        <v>0.07128705334874545</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>22</v>
@@ -3333,19 +3333,19 @@
         <v>24530</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>15783</v>
+        <v>15671</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>36026</v>
+        <v>35880</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03732653797780117</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02401611321801907</v>
+        <v>0.0238455800221088</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05482058763798753</v>
+        <v>0.05459859815023683</v>
       </c>
     </row>
     <row r="10">
@@ -3362,19 +3362,19 @@
         <v>249477</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>243305</v>
+        <v>243398</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>253563</v>
+        <v>253099</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.9707351801118133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9467175947535535</v>
+        <v>0.9470819792433444</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9866358547268013</v>
+        <v>0.9848298213804737</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>281</v>
@@ -3383,19 +3383,19 @@
         <v>373933</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>360261</v>
+        <v>359888</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>382696</v>
+        <v>383560</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9344376792034799</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9002722045664823</v>
+        <v>0.8993392742568449</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9563357647810538</v>
+        <v>0.9584956135451111</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>574</v>
@@ -3404,19 +3404,19 @@
         <v>623410</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>609339</v>
+        <v>610880</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>633750</v>
+        <v>634299</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9486325264341858</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.927221215371499</v>
+        <v>0.9295654197685292</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9643671505406516</v>
+        <v>0.9652021852660105</v>
       </c>
     </row>
     <row r="11">
@@ -3511,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5159</v>
+        <v>5309</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.001542021745721652</v>
@@ -3520,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.008725063339439303</v>
+        <v>0.008977842348289276</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>7</v>
@@ -3529,19 +3529,19 @@
         <v>9353</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>3881</v>
+        <v>4024</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>18182</v>
+        <v>19020</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.01202278391417651</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.00498907953796632</v>
+        <v>0.005172913652343402</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.0233716208233975</v>
+        <v>0.02444959348314438</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>8</v>
@@ -3550,19 +3550,19 @@
         <v>10265</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>4563</v>
+        <v>4555</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>19773</v>
+        <v>18668</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.007496563438631229</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.003332287697218136</v>
+        <v>0.003326519636375536</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.0144406732482206</v>
+        <v>0.01363343878407769</v>
       </c>
     </row>
     <row r="13">
@@ -3579,19 +3579,19 @@
         <v>8581</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4278</v>
+        <v>4550</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15218</v>
+        <v>15665</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01451160060330047</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007235041103060154</v>
+        <v>0.00769378710440354</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02573514881445515</v>
+        <v>0.0264913575982695</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>17</v>
@@ -3600,19 +3600,19 @@
         <v>21600</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>13293</v>
+        <v>13342</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34288</v>
+        <v>33711</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02776597343869154</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01708762124529604</v>
+        <v>0.01715098620138967</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04407611261033845</v>
+        <v>0.04333424641996764</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>27</v>
@@ -3621,19 +3621,19 @@
         <v>30181</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20056</v>
+        <v>20554</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43639</v>
+        <v>43067</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02204194185073855</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01464717813192229</v>
+        <v>0.01501079184936852</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0318704826121786</v>
+        <v>0.03145274302391803</v>
       </c>
     </row>
     <row r="14">
@@ -3650,19 +3650,19 @@
         <v>581835</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>574710</v>
+        <v>574420</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>586370</v>
+        <v>586161</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9839463776509779</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9718964063480081</v>
+        <v>0.9714072891331518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9916159317077841</v>
+        <v>0.9912617611997274</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>631</v>
@@ -3671,19 +3671,19 @@
         <v>746978</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>733006</v>
+        <v>733546</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>757463</v>
+        <v>757487</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.960211242647132</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9422511830403836</v>
+        <v>0.9429452341464934</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9736896694761941</v>
+        <v>0.9737205474694121</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1247</v>
@@ -3692,19 +3692,19 @@
         <v>1328813</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1313934</v>
+        <v>1314051</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1340949</v>
+        <v>1341043</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9704614947106303</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.959594719991284</v>
+        <v>0.9596803360359516</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.979324263583745</v>
+        <v>0.9793933068016278</v>
       </c>
     </row>
     <row r="15">
@@ -4037,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3395</v>
+        <v>3121</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.001498185223795919</v>
@@ -4046,7 +4046,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.008338954573659418</v>
+        <v>0.007667012130365052</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -4055,19 +4055,19 @@
         <v>1658</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5074</v>
+        <v>4931</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003779750545493645</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.001040677008428178</v>
+        <v>0.001040016287458888</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01156459050597354</v>
+        <v>0.01123950845675166</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -4076,19 +4076,19 @@
         <v>2268</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5577</v>
+        <v>5771</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.002681661918379192</v>
+        <v>0.002681661918379193</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0007231982235712999</v>
+        <v>0.0007180688899631493</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.006593735192564855</v>
+        <v>0.006823039693947137</v>
       </c>
     </row>
     <row r="5">
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5765</v>
+        <v>6287</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003888272878075513</v>
@@ -4117,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01416299488420086</v>
+        <v>0.01544533238314785</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -4126,19 +4126,19 @@
         <v>2737</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>815</v>
+        <v>980</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>6291</v>
+        <v>6764</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.006239180808811421</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.001857052235878503</v>
+        <v>0.00223256939408297</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.01433820322326801</v>
+        <v>0.01541815275540357</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -4147,19 +4147,19 @@
         <v>4320</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1863</v>
+        <v>1941</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>8881</v>
+        <v>9230</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.005107718458124323</v>
+        <v>0.005107718458124325</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.002202445835987111</v>
+        <v>0.002295225640133103</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.01049961202870606</v>
+        <v>0.0109122192113711</v>
       </c>
     </row>
     <row r="6">
@@ -4176,19 +4176,19 @@
         <v>404887</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>400818</v>
+        <v>399871</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>406473</v>
+        <v>406472</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.9946135418981286</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.9846183201441054</v>
+        <v>0.9822908108377938</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.9985083417183438</v>
+        <v>0.9985062979768833</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>818</v>
@@ -4197,19 +4197,19 @@
         <v>434338</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>430028</v>
+        <v>430220</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>436797</v>
+        <v>436683</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.989981068645695</v>
+        <v>0.9899810686456948</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.9801567305419255</v>
+        <v>0.9805937122758321</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.9955846968185813</v>
+        <v>0.9953244622431464</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1385</v>
@@ -4218,19 +4218,19 @@
         <v>839226</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>834126</v>
+        <v>833790</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>842456</v>
+        <v>842343</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.9922106196234963</v>
+        <v>0.9922106196234967</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.9861818540494474</v>
+        <v>0.9857844218823782</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.9960295189631408</v>
+        <v>0.9958957293382812</v>
       </c>
     </row>
     <row r="7">
@@ -4322,19 +4322,19 @@
         <v>2113</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>4910</v>
+        <v>4601</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.006832716967034507</v>
+        <v>0.006832716967034505</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002241614459469448</v>
+        <v>0.002198853978526643</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0158750164404454</v>
+        <v>0.01487556463671338</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>14</v>
@@ -4343,19 +4343,19 @@
         <v>6479</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>3841</v>
+        <v>3734</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>11279</v>
+        <v>10672</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01394488055527967</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.008268024714814472</v>
+        <v>0.008036229098819883</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02427585956704782</v>
+        <v>0.02296909700984349</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>19</v>
@@ -4364,19 +4364,19 @@
         <v>8592</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>5364</v>
+        <v>5124</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>13378</v>
+        <v>13495</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01110237376409298</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.006931325403035702</v>
+        <v>0.00662146346947178</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01728635838627138</v>
+        <v>0.01743750813614394</v>
       </c>
     </row>
     <row r="9">
@@ -4393,19 +4393,19 @@
         <v>8091</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4644</v>
+        <v>4540</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>13558</v>
+        <v>13670</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.02615898299050419</v>
+        <v>0.02615898299050418</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01501280347474977</v>
+        <v>0.01467845494600991</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.04383166409818846</v>
+        <v>0.04419349390621558</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>42</v>
@@ -4414,19 +4414,19 @@
         <v>22848</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>16051</v>
+        <v>16542</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>31534</v>
+        <v>31601</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04917665858285208</v>
+        <v>0.04917665858285207</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.03454808168071605</v>
+        <v>0.03560448641927751</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06787318546252025</v>
+        <v>0.06801541528426636</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>56</v>
@@ -4435,19 +4435,19 @@
         <v>30939</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>23329</v>
+        <v>23047</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>40842</v>
+        <v>40372</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03997722181838862</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03014344996658924</v>
+        <v>0.02977927821588395</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05277313268853963</v>
+        <v>0.05216561927721614</v>
       </c>
     </row>
     <row r="10">
@@ -4464,19 +4464,19 @@
         <v>299107</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>293563</v>
+        <v>293189</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>302906</v>
+        <v>302960</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9670083000424614</v>
+        <v>0.9670083000424612</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9490826502433264</v>
+        <v>0.9478759714421126</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9792898331106692</v>
+        <v>0.9794651512968655</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>825</v>
@@ -4485,19 +4485,19 @@
         <v>435282</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>426321</v>
+        <v>425673</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>443262</v>
+        <v>442397</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9368784608618683</v>
+        <v>0.9368784608618682</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9175906867281338</v>
+        <v>0.91619694244093</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9540542267373072</v>
+        <v>0.9521914495686606</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1263</v>
@@ -4506,19 +4506,19 @@
         <v>734388</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>724644</v>
+        <v>723883</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>742700</v>
+        <v>743235</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9489204044175185</v>
+        <v>0.9489204044175183</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9363296769487474</v>
+        <v>0.9353455614234492</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9596601348473944</v>
+        <v>0.9603515549113145</v>
       </c>
     </row>
     <row r="11">
@@ -4610,19 +4610,19 @@
         <v>2723</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1152</v>
+        <v>1141</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5804</v>
+        <v>6373</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.003801441039884322</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.001607375258940545</v>
+        <v>0.001593326158095672</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.008102275399288247</v>
+        <v>0.00889547894698047</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>17</v>
@@ -4631,19 +4631,19 @@
         <v>8137</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>5080</v>
+        <v>4779</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>13661</v>
+        <v>13052</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.009007895721237145</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.005623681387429994</v>
+        <v>0.005290900953340801</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.01512275093936867</v>
+        <v>0.01444874023678274</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>23</v>
@@ -4652,19 +4652,19 @@
         <v>10861</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>7173</v>
+        <v>6921</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>16421</v>
+        <v>16001</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.00670513677283464</v>
+        <v>0.006705136772834641</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.004428316547128189</v>
+        <v>0.00427300943585317</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.01013829029058329</v>
+        <v>0.009878478388935944</v>
       </c>
     </row>
     <row r="13">
@@ -4681,19 +4681,19 @@
         <v>9674</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5610</v>
+        <v>5642</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>15868</v>
+        <v>15565</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01350395145377913</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.007831107128968702</v>
+        <v>0.007875467534858516</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02214967443662246</v>
+        <v>0.02172702567233913</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>47</v>
@@ -4702,19 +4702,19 @@
         <v>25585</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>18774</v>
+        <v>18216</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34631</v>
+        <v>34718</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02832284988799024</v>
+        <v>0.02832284988799025</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.02078228507517475</v>
+        <v>0.02016457709369058</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03833601559341689</v>
+        <v>0.03843314931075827</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>63</v>
@@ -4723,19 +4723,19 @@
         <v>35259</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>27017</v>
+        <v>26086</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>46622</v>
+        <v>45311</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0217686103788929</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01667977449314461</v>
+        <v>0.01610506035813262</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02878376862097116</v>
+        <v>0.02797403295693915</v>
       </c>
     </row>
     <row r="14">
@@ -4752,19 +4752,19 @@
         <v>703994</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>696523</v>
+        <v>697622</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>708372</v>
+        <v>708639</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9826946075063364</v>
+        <v>0.9826946075063367</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9722669844526234</v>
+        <v>0.9738005370870318</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9888062009225477</v>
+        <v>0.9891790515297681</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1643</v>
@@ -4773,19 +4773,19 @@
         <v>869621</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>859865</v>
+        <v>859305</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>876744</v>
+        <v>878219</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9626692543907727</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.951869815965128</v>
+        <v>0.9512504597650061</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9705545164228541</v>
+        <v>0.9721875409348099</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2648</v>
@@ -4794,19 +4794,19 @@
         <v>1573615</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1561056</v>
+        <v>1562617</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1583171</v>
+        <v>1583533</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9715262528482724</v>
+        <v>0.9715262528482725</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9637727097670628</v>
+        <v>0.9647361669394642</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.977426038638296</v>
+        <v>0.9776493965818973</v>
       </c>
     </row>
     <row r="15">
